--- a/lib/PHPExcel/templates/OT_IQC.xlsx
+++ b/lib/PHPExcel/templates/OT_IQC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GPM\www\GPM\lib\PHPExcel\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GPM\www\GPM-TEST\lib\PHPExcel\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723BE239-EA7C-4C19-BF3A-FCC5A83BABA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Entry" sheetId="4" r:id="rId1"/>
@@ -28,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Pierrick Gonnet</author>
   </authors>
   <commentList>
-    <comment ref="N5" authorId="0" shapeId="0">
+    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="0" shapeId="0">
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="0" shapeId="0">
+    <comment ref="N10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O13" authorId="0" shapeId="0">
+    <comment ref="O13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -113,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="0" shapeId="0">
+    <comment ref="P13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S13" authorId="0" shapeId="0">
+    <comment ref="S13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -308,7 +309,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="dd\ mmm\ yyyy"/>
@@ -1518,89 +1519,133 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="600075" cy="542925"/>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6972</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Logo Metcut">
+        <xdr:cNvPr id="4" name="Image 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CED76FA-009D-40E9-940C-6BD16ED2E66F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F32AFBE-1722-457D-AA3E-414C89CCAD15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="400050" y="0"/>
-          <a:ext cx="600075" cy="542925"/>
+          <a:off x="0" y="1"/>
+          <a:ext cx="654672" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="600075" cy="542925"/>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>154927</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Logo Metcut">
+        <xdr:cNvPr id="3" name="Image 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6C0489D-F4C9-46AA-AEDD-CC3053C9393D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
+          <a:off x="0" y="1"/>
+          <a:ext cx="657225" cy="650226"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1890,14 +1935,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4974,14 +5019,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S115"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12324,7 +12369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
